--- a/Data/client_input.xlsx
+++ b/Data/client_input.xlsx
@@ -662,55 +662,55 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>934794</v>
+        <v>809570</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>81794.47500000001</v>
+        <v>57344.54166666667</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
-        <v>124639.2</v>
+        <v>103445.0555555556</v>
       </c>
       <c r="K2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>36353.1</v>
+        <v>26985.66666666667</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>23369.85</v>
+        <v>40478.5</v>
       </c>
       <c r="O2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
